--- a/database/company2.xlsx
+++ b/database/company2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_sha\OneDrive\Desktop\graduation-project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013EAD71-4B4A-40C2-92CE-896477D2C304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34856FF3-3563-4B42-8B79-55A457AA9703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -62,48 +62,12 @@
     <t>May</t>
   </si>
   <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>January</t>
   </si>
   <si>
     <t>March</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>august  2023</t>
-  </si>
-  <si>
-    <t>september  2023</t>
-  </si>
-  <si>
-    <t>october   2023</t>
-  </si>
-  <si>
-    <t>november   2023</t>
-  </si>
-  <si>
-    <t>december  2023</t>
-  </si>
-  <si>
     <t>january  2024</t>
   </si>
   <si>
@@ -119,16 +83,7 @@
     <t>may  2024</t>
   </si>
   <si>
-    <t>june  2024</t>
-  </si>
-  <si>
-    <t>july  2024</t>
-  </si>
-  <si>
-    <t>august  2024</t>
-  </si>
-  <si>
-    <t>september  2024</t>
+    <t>Net Income</t>
   </si>
 </sst>
 </file>
@@ -157,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,13 +135,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -503,7 +472,7 @@
     <col min="4" max="4" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,255 +491,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1300</v>
+      </c>
+      <c r="E5">
+        <v>180</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>2023</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1800</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>2024</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>2985976.9037600001</v>
-      </c>
-      <c r="E7">
-        <v>170211.8474500002</v>
-      </c>
-      <c r="F7">
-        <v>-2438914.6198700001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>2024</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2815107.5085499999</v>
-      </c>
-      <c r="E8">
-        <v>5406849.0839600004</v>
-      </c>
-      <c r="F8">
-        <v>2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>2024</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>-2815107.508549999</v>
-      </c>
-      <c r="E9">
-        <v>-5406849.0839599986</v>
-      </c>
-      <c r="F9">
-        <v>-2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>2024</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>-2721896.9842900001</v>
-      </c>
-      <c r="E10">
-        <v>-130155.4088799997</v>
-      </c>
-      <c r="F10">
-        <v>2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>2024</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>2721896.9842900001</v>
-      </c>
-      <c r="E11">
-        <v>130155.4088799997</v>
-      </c>
-      <c r="F11">
-        <v>-2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>2024</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>-2721896.9842900001</v>
-      </c>
-      <c r="E12">
-        <v>-130155.4088799997</v>
-      </c>
-      <c r="F12">
-        <v>2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>2024</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>2721896.9842900001</v>
-      </c>
-      <c r="E13">
-        <v>130155.4088799997</v>
-      </c>
-      <c r="F13">
-        <v>-2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>2024</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>-2721896.9842900001</v>
-      </c>
-      <c r="E14">
-        <v>-130155.4088799997</v>
-      </c>
-      <c r="F14">
-        <v>2256784.4400599999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>2024</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>2721896.9842900001</v>
-      </c>
-      <c r="E15">
-        <v>124898.3013799997</v>
-      </c>
-      <c r="F15">
-        <v>-2256784.4400599999</v>
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
